--- a/natmiOut/OldD7/LR-pairs_lrc2p/Bsg-Slc16a7.xlsx
+++ b/natmiOut/OldD7/LR-pairs_lrc2p/Bsg-Slc16a7.xlsx
@@ -531,52 +531,52 @@
         <v>21</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>42.9908487107495</v>
+        <v>44.09582266666666</v>
       </c>
       <c r="H2">
-        <v>42.9908487107495</v>
+        <v>132.287468</v>
       </c>
       <c r="I2">
-        <v>0.1966283312298343</v>
+        <v>0.1927468402671175</v>
       </c>
       <c r="J2">
-        <v>0.1966283312298343</v>
+        <v>0.1927468402671175</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.666628781738009</v>
+        <v>0.6847623333333334</v>
       </c>
       <c r="N2">
-        <v>0.666628781738009</v>
+        <v>2.054287</v>
       </c>
       <c r="O2">
-        <v>0.04336959814020253</v>
+        <v>0.04097600788991114</v>
       </c>
       <c r="P2">
-        <v>0.04336959814020253</v>
+        <v>0.04097600788991113</v>
       </c>
       <c r="Q2">
-        <v>28.65893710193</v>
+        <v>30.19515841947955</v>
       </c>
       <c r="R2">
-        <v>28.65893710193</v>
+        <v>271.756425775316</v>
       </c>
       <c r="S2">
-        <v>0.008527691708416546</v>
+        <v>0.007897996047540851</v>
       </c>
       <c r="T2">
-        <v>0.008527691708416546</v>
+        <v>0.007897996047540849</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,52 +593,52 @@
         <v>22</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>42.9908487107495</v>
+        <v>44.09582266666666</v>
       </c>
       <c r="H3">
-        <v>42.9908487107495</v>
+        <v>132.287468</v>
       </c>
       <c r="I3">
-        <v>0.1966283312298343</v>
+        <v>0.1927468402671175</v>
       </c>
       <c r="J3">
-        <v>0.1966283312298343</v>
+        <v>0.1927468402671175</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>13.5945715887876</v>
+        <v>14.24499333333333</v>
       </c>
       <c r="N3">
-        <v>13.5945715887876</v>
+        <v>42.73498</v>
       </c>
       <c r="O3">
-        <v>0.88443692028534</v>
+        <v>0.8524168617409322</v>
       </c>
       <c r="P3">
-        <v>0.88443692028534</v>
+        <v>0.8524168617409322</v>
       </c>
       <c r="Q3">
-        <v>584.4421704610212</v>
+        <v>628.1446999145155</v>
       </c>
       <c r="R3">
-        <v>584.4421704610212</v>
+        <v>5653.30229923064</v>
       </c>
       <c r="S3">
-        <v>0.1739053557137604</v>
+        <v>0.1643006566909771</v>
       </c>
       <c r="T3">
-        <v>0.1739053557137604</v>
+        <v>0.1643006566909771</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,52 +655,52 @@
         <v>23</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>42.9908487107495</v>
+        <v>44.09582266666666</v>
       </c>
       <c r="H4">
-        <v>42.9908487107495</v>
+        <v>132.287468</v>
       </c>
       <c r="I4">
-        <v>0.1966283312298343</v>
+        <v>0.1927468402671175</v>
       </c>
       <c r="J4">
-        <v>0.1966283312298343</v>
+        <v>0.1927468402671175</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>1.10967716407762</v>
+        <v>1.781543666666667</v>
       </c>
       <c r="N4">
-        <v>1.10967716407762</v>
+        <v>5.344631000000001</v>
       </c>
       <c r="O4">
-        <v>0.07219348157445743</v>
+        <v>0.1066071303691566</v>
       </c>
       <c r="P4">
-        <v>0.07219348157445743</v>
+        <v>0.1066071303691566</v>
       </c>
       <c r="Q4">
-        <v>47.70596307863451</v>
+        <v>78.55863359825645</v>
       </c>
       <c r="R4">
-        <v>47.70596307863451</v>
+        <v>707.027702384308</v>
       </c>
       <c r="S4">
-        <v>0.01419528380765735</v>
+        <v>0.02054818752859961</v>
       </c>
       <c r="T4">
-        <v>0.01419528380765735</v>
+        <v>0.0205481875285996</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,52 +717,52 @@
         <v>21</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>111.268388766775</v>
+        <v>111.3149186666667</v>
       </c>
       <c r="H5">
-        <v>111.268388766775</v>
+        <v>333.944756</v>
       </c>
       <c r="I5">
-        <v>0.5089110417206736</v>
+        <v>0.4865676055026886</v>
       </c>
       <c r="J5">
-        <v>0.5089110417206736</v>
+        <v>0.4865676055026886</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.666628781738009</v>
+        <v>0.6847623333333334</v>
       </c>
       <c r="N5">
-        <v>0.666628781738009</v>
+        <v>2.054287</v>
       </c>
       <c r="O5">
-        <v>0.04336959814020253</v>
+        <v>0.04097600788991114</v>
       </c>
       <c r="P5">
-        <v>0.04336959814020253</v>
+        <v>0.04097600788991113</v>
       </c>
       <c r="Q5">
-        <v>74.17471044954638</v>
+        <v>76.22426344099688</v>
       </c>
       <c r="R5">
-        <v>74.17471044954638</v>
+        <v>686.0183709689719</v>
       </c>
       <c r="S5">
-        <v>0.02207126736853746</v>
+        <v>0.01993759804205334</v>
       </c>
       <c r="T5">
-        <v>0.02207126736853746</v>
+        <v>0.01993759804205333</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -779,52 +779,52 @@
         <v>22</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>111.268388766775</v>
+        <v>111.3149186666667</v>
       </c>
       <c r="H6">
-        <v>111.268388766775</v>
+        <v>333.944756</v>
       </c>
       <c r="I6">
-        <v>0.5089110417206736</v>
+        <v>0.4865676055026886</v>
       </c>
       <c r="J6">
-        <v>0.5089110417206736</v>
+        <v>0.4865676055026886</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>13.5945715887876</v>
+        <v>14.24499333333333</v>
       </c>
       <c r="N6">
-        <v>13.5945715887876</v>
+        <v>42.73498</v>
       </c>
       <c r="O6">
-        <v>0.88443692028534</v>
+        <v>0.8524168617409322</v>
       </c>
       <c r="P6">
-        <v>0.88443692028534</v>
+        <v>0.8524168617409322</v>
       </c>
       <c r="Q6">
-        <v>1512.646076658973</v>
+        <v>1585.680274307209</v>
       </c>
       <c r="R6">
-        <v>1512.646076658973</v>
+        <v>14271.12246876488</v>
       </c>
       <c r="S6">
-        <v>0.4500997144386367</v>
+        <v>0.4147584313074018</v>
       </c>
       <c r="T6">
-        <v>0.4500997144386367</v>
+        <v>0.4147584313074018</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -841,52 +841,52 @@
         <v>23</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>111.268388766775</v>
+        <v>111.3149186666667</v>
       </c>
       <c r="H7">
-        <v>111.268388766775</v>
+        <v>333.944756</v>
       </c>
       <c r="I7">
-        <v>0.5089110417206736</v>
+        <v>0.4865676055026886</v>
       </c>
       <c r="J7">
-        <v>0.5089110417206736</v>
+        <v>0.4865676055026886</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>1.10967716407762</v>
+        <v>1.781543666666667</v>
       </c>
       <c r="N7">
-        <v>1.10967716407762</v>
+        <v>5.344631000000001</v>
       </c>
       <c r="O7">
-        <v>0.07219348157445743</v>
+        <v>0.1066071303691566</v>
       </c>
       <c r="P7">
-        <v>0.07219348157445743</v>
+        <v>0.1066071303691566</v>
       </c>
       <c r="Q7">
-        <v>123.471990098201</v>
+        <v>198.3123883561151</v>
       </c>
       <c r="R7">
-        <v>123.471990098201</v>
+        <v>1784.811495205036</v>
       </c>
       <c r="S7">
-        <v>0.03674005991349939</v>
+        <v>0.05187157615323349</v>
       </c>
       <c r="T7">
-        <v>0.03674005991349939</v>
+        <v>0.05187157615323348</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -903,52 +903,52 @@
         <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>35.2065375043441</v>
+        <v>40.34450033333334</v>
       </c>
       <c r="H8">
-        <v>35.2065375043441</v>
+        <v>121.033501</v>
       </c>
       <c r="I8">
-        <v>0.161025030336952</v>
+        <v>0.176349470111689</v>
       </c>
       <c r="J8">
-        <v>0.161025030336952</v>
+        <v>0.176349470111689</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.666628781738009</v>
+        <v>0.6847623333333334</v>
       </c>
       <c r="N8">
-        <v>0.666628781738009</v>
+        <v>2.054287</v>
       </c>
       <c r="O8">
-        <v>0.04336959814020253</v>
+        <v>0.04097600788991114</v>
       </c>
       <c r="P8">
-        <v>0.04336959814020253</v>
+        <v>0.04097600788991113</v>
       </c>
       <c r="Q8">
-        <v>23.46969120573443</v>
+        <v>27.62639418542078</v>
       </c>
       <c r="R8">
-        <v>23.46969120573443</v>
+        <v>248.637547668787</v>
       </c>
       <c r="S8">
-        <v>0.00698359085622753</v>
+        <v>0.007226097278678216</v>
       </c>
       <c r="T8">
-        <v>0.00698359085622753</v>
+        <v>0.007226097278678215</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -965,52 +965,52 @@
         <v>22</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>35.2065375043441</v>
+        <v>40.34450033333334</v>
       </c>
       <c r="H9">
-        <v>35.2065375043441</v>
+        <v>121.033501</v>
       </c>
       <c r="I9">
-        <v>0.161025030336952</v>
+        <v>0.176349470111689</v>
       </c>
       <c r="J9">
-        <v>0.161025030336952</v>
+        <v>0.176349470111689</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>13.5945715887876</v>
+        <v>14.24499333333333</v>
       </c>
       <c r="N9">
-        <v>13.5945715887876</v>
+        <v>42.73498</v>
       </c>
       <c r="O9">
-        <v>0.88443692028534</v>
+        <v>0.8524168617409322</v>
       </c>
       <c r="P9">
-        <v>0.88443692028534</v>
+        <v>0.8524168617409322</v>
       </c>
       <c r="Q9">
-        <v>478.6177944961414</v>
+        <v>574.7071382849978</v>
       </c>
       <c r="R9">
-        <v>478.6177944961414</v>
+        <v>5172.36424456498</v>
       </c>
       <c r="S9">
-        <v>0.1424164819200673</v>
+        <v>0.1503232618822822</v>
       </c>
       <c r="T9">
-        <v>0.1424164819200673</v>
+        <v>0.1503232618822822</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1027,52 +1027,52 @@
         <v>23</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>35.2065375043441</v>
+        <v>40.34450033333334</v>
       </c>
       <c r="H10">
-        <v>35.2065375043441</v>
+        <v>121.033501</v>
       </c>
       <c r="I10">
-        <v>0.161025030336952</v>
+        <v>0.176349470111689</v>
       </c>
       <c r="J10">
-        <v>0.161025030336952</v>
+        <v>0.176349470111689</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>1.10967716407762</v>
+        <v>1.781543666666667</v>
       </c>
       <c r="N10">
-        <v>1.10967716407762</v>
+        <v>5.344631000000001</v>
       </c>
       <c r="O10">
-        <v>0.07219348157445743</v>
+        <v>0.1066071303691566</v>
       </c>
       <c r="P10">
-        <v>0.07219348157445743</v>
+        <v>0.1066071303691566</v>
       </c>
       <c r="Q10">
-        <v>39.06789069481292</v>
+        <v>71.87548905368124</v>
       </c>
       <c r="R10">
-        <v>39.06789069481292</v>
+        <v>646.8794014831311</v>
       </c>
       <c r="S10">
-        <v>0.0116249575606572</v>
+        <v>0.01880011095072852</v>
       </c>
       <c r="T10">
-        <v>0.0116249575606572</v>
+        <v>0.01880011095072852</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1089,52 +1089,52 @@
         <v>21</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>29.1743794753164</v>
+        <v>33.02061066666666</v>
       </c>
       <c r="H11">
-        <v>29.1743794753164</v>
+        <v>99.061832</v>
       </c>
       <c r="I11">
-        <v>0.13343559671254</v>
+        <v>0.1443360841185049</v>
       </c>
       <c r="J11">
-        <v>0.13343559671254</v>
+        <v>0.144336084118505</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>0.666628781738009</v>
+        <v>0.6847623333333334</v>
       </c>
       <c r="N11">
-        <v>0.666628781738009</v>
+        <v>2.054287</v>
       </c>
       <c r="O11">
-        <v>0.04336959814020253</v>
+        <v>0.04097600788991114</v>
       </c>
       <c r="P11">
-        <v>0.04336959814020253</v>
+        <v>0.04097600788991113</v>
       </c>
       <c r="Q11">
-        <v>19.44848104759254</v>
+        <v>22.61127040819822</v>
       </c>
       <c r="R11">
-        <v>19.44848104759254</v>
+        <v>203.501433673784</v>
       </c>
       <c r="S11">
-        <v>0.00578704820702099</v>
+        <v>0.005914316521638736</v>
       </c>
       <c r="T11">
-        <v>0.00578704820702099</v>
+        <v>0.005914316521638736</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1151,52 +1151,52 @@
         <v>22</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>29.1743794753164</v>
+        <v>33.02061066666666</v>
       </c>
       <c r="H12">
-        <v>29.1743794753164</v>
+        <v>99.061832</v>
       </c>
       <c r="I12">
-        <v>0.13343559671254</v>
+        <v>0.1443360841185049</v>
       </c>
       <c r="J12">
-        <v>0.13343559671254</v>
+        <v>0.144336084118505</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>13.5945715887876</v>
+        <v>14.24499333333333</v>
       </c>
       <c r="N12">
-        <v>13.5945715887876</v>
+        <v>42.73498</v>
       </c>
       <c r="O12">
-        <v>0.88443692028534</v>
+        <v>0.8524168617409322</v>
       </c>
       <c r="P12">
-        <v>0.88443692028534</v>
+        <v>0.8524168617409322</v>
       </c>
       <c r="Q12">
-        <v>396.6131903356444</v>
+        <v>470.3783788092622</v>
       </c>
       <c r="R12">
-        <v>396.6131903356444</v>
+        <v>4233.405409283359</v>
       </c>
       <c r="S12">
-        <v>0.1180153682128755</v>
+        <v>0.1230345118602712</v>
       </c>
       <c r="T12">
-        <v>0.1180153682128755</v>
+        <v>0.1230345118602712</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1213,52 +1213,52 @@
         <v>23</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>29.1743794753164</v>
+        <v>33.02061066666666</v>
       </c>
       <c r="H13">
-        <v>29.1743794753164</v>
+        <v>99.061832</v>
       </c>
       <c r="I13">
-        <v>0.13343559671254</v>
+        <v>0.1443360841185049</v>
       </c>
       <c r="J13">
-        <v>0.13343559671254</v>
+        <v>0.144336084118505</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>1.10967716407762</v>
+        <v>1.781543666666667</v>
       </c>
       <c r="N13">
-        <v>1.10967716407762</v>
+        <v>5.344631000000001</v>
       </c>
       <c r="O13">
-        <v>0.07219348157445743</v>
+        <v>0.1066071303691566</v>
       </c>
       <c r="P13">
-        <v>0.07219348157445743</v>
+        <v>0.1066071303691566</v>
       </c>
       <c r="Q13">
-        <v>32.37414267989342</v>
+        <v>58.82765980266578</v>
       </c>
       <c r="R13">
-        <v>32.37414267989342</v>
+        <v>529.4489382239921</v>
       </c>
       <c r="S13">
-        <v>0.009633180292643491</v>
+        <v>0.01538725573659501</v>
       </c>
       <c r="T13">
-        <v>0.009633180292643491</v>
+        <v>0.01538725573659501</v>
       </c>
     </row>
   </sheetData>
